--- a/2. Suma de enteros base DOS/SD-MTDeterminista2C.xlsx
+++ b/2. Suma de enteros base DOS/SD-MTDeterminista2C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34630\OneDrive\Escritorio\Universidad\4º\2º Cuatrimestre\TAC\P2MT\Practica_MT_TAC\2. Suma de enteros base DOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\2. Suma de enteros base DOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB5C20-F69E-497E-A5DD-82A5E6269C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E615A5-6A4B-4D39-BC47-0100E4251327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -257,10 +257,27 @@
               <a:rPr lang="es-ES" sz="1200" baseline="0"/>
               <a:t> - MT DETERMINISTA 1 CINTA</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+              <a:t>(ESCALA LOGARÍTMICA)</a:t>
+            </a:r>
             <a:endParaRPr lang="es-ES" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20371688927912338"/>
+          <c:y val="3.351018777139074E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -670,6 +687,7 @@
       <c:valAx>
         <c:axId val="1118020576"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1692,15 +1710,15 @@
   <dimension ref="B2:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1728,7 +1746,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1796,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1846,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:I7" si="0">F4-E4</f>
+        <f t="shared" ref="F5:I6" si="0">F4-E4</f>
         <v>66</v>
       </c>
       <c r="G5" s="5">
@@ -1885,7 +1903,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1904,11 +1922,11 @@
         <v>54</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f>H5-G5</f>
         <v>148</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
+        <f>I5-H5</f>
         <v>246</v>
       </c>
       <c r="J6" s="1">
@@ -1939,7 +1957,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1955,11 +1973,11 @@
         <v>22</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f>H6-G6</f>
         <v>94</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f>I6-H6</f>
         <v>98</v>
       </c>
       <c r="J7" s="1">
@@ -1990,7 +2008,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2003,11 +2021,11 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:I8" si="4">H7-G7</f>
+        <f t="shared" ref="H8" si="4">H7-G7</f>
         <v>72</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="4"/>
+        <f>I7-H7</f>
         <v>4</v>
       </c>
       <c r="J8" s="1">
@@ -2023,7 +2041,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2071,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2098,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
